--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Apoe-Lrp8.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Apoe-Lrp8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.7760002858863</v>
+        <v>19.020839</v>
       </c>
       <c r="H2">
-        <v>17.7760002858863</v>
+        <v>57.062517</v>
       </c>
       <c r="I2">
-        <v>0.003199072070595395</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="J2">
-        <v>0.003199072070595395</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>4.84291836374797</v>
+        <v>0.1868273333333333</v>
       </c>
       <c r="N2">
-        <v>4.84291836374797</v>
+        <v>0.560482</v>
       </c>
       <c r="O2">
-        <v>0.3971854622058597</v>
+        <v>0.01335295991620028</v>
       </c>
       <c r="P2">
-        <v>0.3971854622058597</v>
+        <v>0.01335295991620028</v>
       </c>
       <c r="Q2">
-        <v>86.08771821850793</v>
+        <v>3.553612628132667</v>
       </c>
       <c r="R2">
-        <v>86.08771821850793</v>
+        <v>31.982513653194</v>
       </c>
       <c r="S2">
-        <v>0.001270624918989288</v>
+        <v>3.90594799059157E-05</v>
       </c>
       <c r="T2">
-        <v>0.001270624918989288</v>
+        <v>3.905947990591571E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.7760002858863</v>
+        <v>19.020839</v>
       </c>
       <c r="H3">
-        <v>17.7760002858863</v>
+        <v>57.062517</v>
       </c>
       <c r="I3">
-        <v>0.003199072070595395</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="J3">
-        <v>0.003199072070595395</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.968021272900974</v>
+        <v>4.843718666666667</v>
       </c>
       <c r="N3">
-        <v>0.968021272900974</v>
+        <v>14.531156</v>
       </c>
       <c r="O3">
-        <v>0.07939096797095771</v>
+        <v>0.3461912132843752</v>
       </c>
       <c r="P3">
-        <v>0.07939096797095771</v>
+        <v>0.3461912132843752</v>
       </c>
       <c r="Q3">
-        <v>17.20754642383173</v>
+        <v>92.13159291996134</v>
       </c>
       <c r="R3">
-        <v>17.20754642383173</v>
+        <v>829.1843362796519</v>
       </c>
       <c r="S3">
-        <v>0.0002539774282934244</v>
+        <v>0.00101266302181288</v>
       </c>
       <c r="T3">
-        <v>0.0002539774282934244</v>
+        <v>0.00101266302181288</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.7760002858863</v>
+        <v>19.020839</v>
       </c>
       <c r="H4">
-        <v>17.7760002858863</v>
+        <v>57.062517</v>
       </c>
       <c r="I4">
-        <v>0.003199072070595395</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="J4">
-        <v>0.003199072070595395</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.13664703581253</v>
+        <v>1.932387666666666</v>
       </c>
       <c r="N4">
-        <v>1.13664703581253</v>
+        <v>5.797162999999999</v>
       </c>
       <c r="O4">
-        <v>0.09322058403122289</v>
+        <v>0.1381119914050395</v>
       </c>
       <c r="P4">
-        <v>0.09322058403122289</v>
+        <v>0.1381119914050395</v>
       </c>
       <c r="Q4">
-        <v>20.20503803355535</v>
+        <v>36.75563469325233</v>
       </c>
       <c r="R4">
-        <v>20.20503803355535</v>
+        <v>330.800712239271</v>
       </c>
       <c r="S4">
-        <v>0.0002982193667788763</v>
+        <v>0.000403999007478952</v>
       </c>
       <c r="T4">
-        <v>0.0002982193667788763</v>
+        <v>0.000403999007478952</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.7760002858863</v>
+        <v>19.020839</v>
       </c>
       <c r="H5">
-        <v>17.7760002858863</v>
+        <v>57.062517</v>
       </c>
       <c r="I5">
-        <v>0.003199072070595395</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="J5">
-        <v>0.003199072070595395</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.01760918969963</v>
+        <v>1.513423333333333</v>
       </c>
       <c r="N5">
-        <v>5.01760918969963</v>
+        <v>4.54027</v>
       </c>
       <c r="O5">
-        <v>0.4115124962868217</v>
+        <v>0.108167690164406</v>
       </c>
       <c r="P5">
-        <v>0.4115124962868217</v>
+        <v>0.1081676901644061</v>
       </c>
       <c r="Q5">
-        <v>89.19302239056636</v>
+        <v>28.78658156217666</v>
       </c>
       <c r="R5">
-        <v>89.19302239056636</v>
+        <v>259.07923405959</v>
       </c>
       <c r="S5">
-        <v>0.001316458133572163</v>
+        <v>0.0003164072795066244</v>
       </c>
       <c r="T5">
-        <v>0.001316458133572163</v>
+        <v>0.0003164072795066244</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.7760002858863</v>
+        <v>19.020839</v>
       </c>
       <c r="H6">
-        <v>17.7760002858863</v>
+        <v>57.062517</v>
       </c>
       <c r="I6">
-        <v>0.003199072070595395</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="J6">
-        <v>0.003199072070595395</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.227894833685927</v>
+        <v>5.064756333333333</v>
       </c>
       <c r="N6">
-        <v>0.227894833685927</v>
+        <v>15.194269</v>
       </c>
       <c r="O6">
-        <v>0.01869048950513819</v>
+        <v>0.3619892608736132</v>
       </c>
       <c r="P6">
-        <v>0.01869048950513819</v>
+        <v>0.3619892608736132</v>
       </c>
       <c r="Q6">
-        <v>4.051058628753049</v>
+        <v>96.33591479056366</v>
       </c>
       <c r="R6">
-        <v>4.051058628753049</v>
+        <v>867.023233115073</v>
       </c>
       <c r="S6">
-        <v>5.979222296164393E-05</v>
+        <v>0.001058874762598224</v>
       </c>
       <c r="T6">
-        <v>5.979222296164393E-05</v>
+        <v>0.001058874762598224</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.02649566790478</v>
+        <v>19.020839</v>
       </c>
       <c r="H7">
-        <v>3.02649566790478</v>
+        <v>57.062517</v>
       </c>
       <c r="I7">
-        <v>0.0005446657069790546</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="J7">
-        <v>0.0005446657069790546</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.84291836374797</v>
+        <v>0.4503413333333333</v>
       </c>
       <c r="N7">
-        <v>4.84291836374797</v>
+        <v>1.351024</v>
       </c>
       <c r="O7">
-        <v>0.3971854622058597</v>
+        <v>0.03218688435636571</v>
       </c>
       <c r="P7">
-        <v>0.3971854622058597</v>
+        <v>0.03218688435636571</v>
       </c>
       <c r="Q7">
-        <v>14.65707144789974</v>
+        <v>8.565869996378666</v>
       </c>
       <c r="R7">
-        <v>14.65707144789974</v>
+        <v>77.09282996740799</v>
       </c>
       <c r="S7">
-        <v>0.0002163333005741571</v>
+        <v>9.415163159639355E-05</v>
       </c>
       <c r="T7">
-        <v>0.0002163333005741571</v>
+        <v>9.415163159639355E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.02649566790478</v>
+        <v>3.243298333333333</v>
       </c>
       <c r="H8">
-        <v>3.02649566790478</v>
+        <v>9.729894999999999</v>
       </c>
       <c r="I8">
-        <v>0.0005446657069790546</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="J8">
-        <v>0.0005446657069790546</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.968021272900974</v>
+        <v>0.1868273333333333</v>
       </c>
       <c r="N8">
-        <v>0.968021272900974</v>
+        <v>0.560482</v>
       </c>
       <c r="O8">
-        <v>0.07939096797095771</v>
+        <v>0.01335295991620028</v>
       </c>
       <c r="P8">
-        <v>0.07939096797095771</v>
+        <v>0.01335295991620028</v>
       </c>
       <c r="Q8">
-        <v>2.929712188874468</v>
+        <v>0.6059367788211111</v>
       </c>
       <c r="R8">
-        <v>2.929712188874468</v>
+        <v>5.45343100939</v>
       </c>
       <c r="S8">
-        <v>4.324153769765316E-05</v>
+        <v>6.660145016722092E-06</v>
       </c>
       <c r="T8">
-        <v>4.324153769765316E-05</v>
+        <v>6.660145016722093E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.02649566790478</v>
+        <v>3.243298333333333</v>
       </c>
       <c r="H9">
-        <v>3.02649566790478</v>
+        <v>9.729894999999999</v>
       </c>
       <c r="I9">
-        <v>0.0005446657069790546</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="J9">
-        <v>0.0005446657069790546</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.13664703581253</v>
+        <v>4.843718666666667</v>
       </c>
       <c r="N9">
-        <v>1.13664703581253</v>
+        <v>14.531156</v>
       </c>
       <c r="O9">
-        <v>0.09322058403122289</v>
+        <v>0.3461912132843752</v>
       </c>
       <c r="P9">
-        <v>0.09322058403122289</v>
+        <v>0.3461912132843752</v>
       </c>
       <c r="Q9">
-        <v>3.440057329823432</v>
+        <v>15.70962467873555</v>
       </c>
       <c r="R9">
-        <v>3.440057329823432</v>
+        <v>141.38662210862</v>
       </c>
       <c r="S9">
-        <v>5.077405530636639E-05</v>
+        <v>0.000172672104047251</v>
       </c>
       <c r="T9">
-        <v>5.077405530636639E-05</v>
+        <v>0.000172672104047251</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.02649566790478</v>
+        <v>3.243298333333333</v>
       </c>
       <c r="H10">
-        <v>3.02649566790478</v>
+        <v>9.729894999999999</v>
       </c>
       <c r="I10">
-        <v>0.0005446657069790546</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="J10">
-        <v>0.0005446657069790546</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.01760918969963</v>
+        <v>1.932387666666666</v>
       </c>
       <c r="N10">
-        <v>5.01760918969963</v>
+        <v>5.797162999999999</v>
       </c>
       <c r="O10">
-        <v>0.4115124962868217</v>
+        <v>0.1381119914050395</v>
       </c>
       <c r="P10">
-        <v>0.4115124962868217</v>
+        <v>0.1381119914050395</v>
       </c>
       <c r="Q10">
-        <v>15.18577247586514</v>
+        <v>6.267309698653888</v>
       </c>
       <c r="R10">
-        <v>15.18577247586514</v>
+        <v>56.40578728788499</v>
       </c>
       <c r="S10">
-        <v>0.0002241367447207773</v>
+        <v>6.888704055719129E-05</v>
       </c>
       <c r="T10">
-        <v>0.0002241367447207773</v>
+        <v>6.888704055719129E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.02649566790478</v>
+        <v>3.243298333333333</v>
       </c>
       <c r="H11">
-        <v>3.02649566790478</v>
+        <v>9.729894999999999</v>
       </c>
       <c r="I11">
-        <v>0.0005446657069790546</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="J11">
-        <v>0.0005446657069790546</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.227894833685927</v>
+        <v>1.513423333333333</v>
       </c>
       <c r="N11">
-        <v>0.227894833685927</v>
+        <v>4.54027</v>
       </c>
       <c r="O11">
-        <v>0.01869048950513819</v>
+        <v>0.108167690164406</v>
       </c>
       <c r="P11">
-        <v>0.01869048950513819</v>
+        <v>0.1081676901644061</v>
       </c>
       <c r="Q11">
-        <v>0.6897227268883385</v>
+        <v>4.908483374627777</v>
       </c>
       <c r="R11">
-        <v>0.6897227268883385</v>
+        <v>44.17635037164999</v>
       </c>
       <c r="S11">
-        <v>1.018006868010069E-05</v>
+        <v>5.395152139599988E-05</v>
       </c>
       <c r="T11">
-        <v>1.018006868010069E-05</v>
+        <v>5.395152139599989E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1680.74953322845</v>
+        <v>3.243298333333333</v>
       </c>
       <c r="H12">
-        <v>1680.74953322845</v>
+        <v>9.729894999999999</v>
       </c>
       <c r="I12">
-        <v>0.3024774304085974</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="J12">
-        <v>0.3024774304085974</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.84291836374797</v>
+        <v>5.064756333333333</v>
       </c>
       <c r="N12">
-        <v>4.84291836374797</v>
+        <v>15.194269</v>
       </c>
       <c r="O12">
-        <v>0.3971854622058597</v>
+        <v>0.3619892608736132</v>
       </c>
       <c r="P12">
-        <v>0.3971854622058597</v>
+        <v>0.3619892608736132</v>
       </c>
       <c r="Q12">
-        <v>8139.732779332889</v>
+        <v>16.42651577463944</v>
       </c>
       <c r="R12">
-        <v>8139.732779332889</v>
+        <v>147.838641971755</v>
       </c>
       <c r="S12">
-        <v>0.1201396380036795</v>
+        <v>0.000180551801776123</v>
       </c>
       <c r="T12">
-        <v>0.1201396380036795</v>
+        <v>0.000180551801776123</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,55 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1680.74953322845</v>
+        <v>3.243298333333333</v>
       </c>
       <c r="H13">
-        <v>1680.74953322845</v>
+        <v>9.729894999999999</v>
       </c>
       <c r="I13">
-        <v>0.3024774304085974</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="J13">
-        <v>0.3024774304085974</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.968021272900974</v>
+        <v>0.4503413333333333</v>
       </c>
       <c r="N13">
-        <v>0.968021272900974</v>
+        <v>1.351024</v>
       </c>
       <c r="O13">
-        <v>0.07939096797095771</v>
+        <v>0.03218688435636571</v>
       </c>
       <c r="P13">
-        <v>0.07939096797095771</v>
+        <v>0.03218688435636571</v>
       </c>
       <c r="Q13">
-        <v>1627.001302583522</v>
+        <v>1.460591295831111</v>
       </c>
       <c r="R13">
-        <v>1627.001302583522</v>
+        <v>13.14532166248</v>
       </c>
       <c r="S13">
-        <v>0.02401397598950655</v>
+        <v>1.605406732254015E-05</v>
       </c>
       <c r="T13">
-        <v>0.02401397598950655</v>
+        <v>1.605406732254015E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1680.74953322845</v>
+        <v>2517.581258333333</v>
       </c>
       <c r="H14">
-        <v>1680.74953322845</v>
+        <v>7552.743774999999</v>
       </c>
       <c r="I14">
-        <v>0.3024774304085974</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="J14">
-        <v>0.3024774304085974</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>1.13664703581253</v>
+        <v>0.1868273333333333</v>
       </c>
       <c r="N14">
-        <v>1.13664703581253</v>
+        <v>0.560482</v>
       </c>
       <c r="O14">
-        <v>0.09322058403122289</v>
+        <v>0.01335295991620028</v>
       </c>
       <c r="P14">
-        <v>0.09322058403122289</v>
+        <v>0.01335295991620028</v>
       </c>
       <c r="Q14">
-        <v>1910.418974887411</v>
+        <v>470.3529929443944</v>
       </c>
       <c r="R14">
-        <v>1910.418974887411</v>
+        <v>4233.17693649955</v>
       </c>
       <c r="S14">
-        <v>0.02819712271895303</v>
+        <v>0.005169877867710293</v>
       </c>
       <c r="T14">
-        <v>0.02819712271895303</v>
+        <v>0.005169877867710294</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1680.74953322845</v>
+        <v>2517.581258333333</v>
       </c>
       <c r="H15">
-        <v>1680.74953322845</v>
+        <v>7552.743774999999</v>
       </c>
       <c r="I15">
-        <v>0.3024774304085974</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="J15">
-        <v>0.3024774304085974</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.01760918969963</v>
+        <v>4.843718666666667</v>
       </c>
       <c r="N15">
-        <v>5.01760918969963</v>
+        <v>14.531156</v>
       </c>
       <c r="O15">
-        <v>0.4115124962868217</v>
+        <v>0.3461912132843752</v>
       </c>
       <c r="P15">
-        <v>0.4115124962868217</v>
+        <v>0.3461912132843752</v>
       </c>
       <c r="Q15">
-        <v>8433.344303510436</v>
+        <v>12194.45533583932</v>
       </c>
       <c r="R15">
-        <v>8433.344303510436</v>
+        <v>109750.0980225539</v>
       </c>
       <c r="S15">
-        <v>0.1244732424578653</v>
+        <v>0.1340351729344486</v>
       </c>
       <c r="T15">
-        <v>0.1244732424578653</v>
+        <v>0.1340351729344486</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,122 +1402,122 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1680.74953322845</v>
+        <v>2517.581258333333</v>
       </c>
       <c r="H16">
-        <v>1680.74953322845</v>
+        <v>7552.743774999999</v>
       </c>
       <c r="I16">
-        <v>0.3024774304085974</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="J16">
-        <v>0.3024774304085974</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.227894833685927</v>
+        <v>1.932387666666666</v>
       </c>
       <c r="N16">
-        <v>0.227894833685927</v>
+        <v>5.797162999999999</v>
       </c>
       <c r="O16">
-        <v>0.01869048950513819</v>
+        <v>0.1381119914050395</v>
       </c>
       <c r="P16">
-        <v>0.01869048950513819</v>
+        <v>0.1381119914050395</v>
       </c>
       <c r="Q16">
-        <v>383.0341353427971</v>
+        <v>4864.942973434479</v>
       </c>
       <c r="R16">
-        <v>383.0341353427971</v>
+        <v>43784.48676091032</v>
       </c>
       <c r="S16">
-        <v>0.005653451238593057</v>
+        <v>0.05347294772929194</v>
       </c>
       <c r="T16">
-        <v>0.005653451238593057</v>
+        <v>0.05347294772929194</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3571.21887944288</v>
+        <v>2517.581258333333</v>
       </c>
       <c r="H17">
-        <v>3571.21887944288</v>
+        <v>7552.743774999999</v>
       </c>
       <c r="I17">
-        <v>0.6426972542456323</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="J17">
-        <v>0.6426972542456323</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.84291836374797</v>
+        <v>1.513423333333333</v>
       </c>
       <c r="N17">
-        <v>4.84291836374797</v>
+        <v>4.54027</v>
       </c>
       <c r="O17">
-        <v>0.3971854622058597</v>
+        <v>0.108167690164406</v>
       </c>
       <c r="P17">
-        <v>0.3971854622058597</v>
+        <v>0.1081676901644061</v>
       </c>
       <c r="Q17">
-        <v>17295.12149221737</v>
+        <v>3810.16621992436</v>
       </c>
       <c r="R17">
-        <v>17295.12149221737</v>
+        <v>34291.49597931924</v>
       </c>
       <c r="S17">
-        <v>0.2552700059859884</v>
+        <v>0.0418793848623667</v>
       </c>
       <c r="T17">
-        <v>0.2552700059859884</v>
+        <v>0.0418793848623667</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3571.21887944288</v>
+        <v>2517.581258333333</v>
       </c>
       <c r="H18">
-        <v>3571.21887944288</v>
+        <v>7552.743774999999</v>
       </c>
       <c r="I18">
-        <v>0.6426972542456323</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="J18">
-        <v>0.6426972542456323</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.968021272900974</v>
+        <v>5.064756333333333</v>
       </c>
       <c r="N18">
-        <v>0.968021272900974</v>
+        <v>15.194269</v>
       </c>
       <c r="O18">
-        <v>0.07939096797095771</v>
+        <v>0.3619892608736132</v>
       </c>
       <c r="P18">
-        <v>0.07939096797095771</v>
+        <v>0.3619892608736132</v>
       </c>
       <c r="Q18">
-        <v>3457.015845486286</v>
+        <v>12750.93562282505</v>
       </c>
       <c r="R18">
-        <v>3457.015845486286</v>
+        <v>114758.4206054255</v>
       </c>
       <c r="S18">
-        <v>0.05102435712683746</v>
+        <v>0.1401517176628984</v>
       </c>
       <c r="T18">
-        <v>0.05102435712683746</v>
+        <v>0.1401517176628984</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3571.21887944288</v>
+        <v>2517.581258333333</v>
       </c>
       <c r="H19">
-        <v>3571.21887944288</v>
+        <v>7552.743774999999</v>
       </c>
       <c r="I19">
-        <v>0.6426972542456323</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="J19">
-        <v>0.6426972542456323</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.13664703581253</v>
+        <v>0.4503413333333333</v>
       </c>
       <c r="N19">
-        <v>1.13664703581253</v>
+        <v>1.351024</v>
       </c>
       <c r="O19">
-        <v>0.09322058403122289</v>
+        <v>0.03218688435636571</v>
       </c>
       <c r="P19">
-        <v>0.09322058403122289</v>
+        <v>0.03218688435636571</v>
       </c>
       <c r="Q19">
-        <v>4059.215353556494</v>
+        <v>1133.770900652844</v>
       </c>
       <c r="R19">
-        <v>4059.215353556494</v>
+        <v>10203.9381058756</v>
       </c>
       <c r="S19">
-        <v>0.05991261339604119</v>
+        <v>0.0124618258505098</v>
       </c>
       <c r="T19">
-        <v>0.05991261339604119</v>
+        <v>0.0124618258505098</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,55 +1650,55 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3571.21887944288</v>
+        <v>3661.277099333334</v>
       </c>
       <c r="H20">
-        <v>3571.21887944288</v>
+        <v>10983.831298</v>
       </c>
       <c r="I20">
-        <v>0.6426972542456323</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="J20">
-        <v>0.6426972542456323</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="K20">
         <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>5.01760918969963</v>
+        <v>0.1868273333333333</v>
       </c>
       <c r="N20">
-        <v>5.01760918969963</v>
+        <v>0.560482</v>
       </c>
       <c r="O20">
-        <v>0.4115124962868217</v>
+        <v>0.01335295991620028</v>
       </c>
       <c r="P20">
-        <v>0.4115124962868217</v>
+        <v>0.01335295991620028</v>
       </c>
       <c r="Q20">
-        <v>17918.98066792141</v>
+        <v>684.0266370628485</v>
       </c>
       <c r="R20">
-        <v>17918.98066792141</v>
+        <v>6156.239733565637</v>
       </c>
       <c r="S20">
-        <v>0.2644779514513063</v>
+        <v>0.007518468522413741</v>
       </c>
       <c r="T20">
-        <v>0.2644779514513063</v>
+        <v>0.007518468522413742</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3571.21887944288</v>
+        <v>3661.277099333334</v>
       </c>
       <c r="H21">
-        <v>3571.21887944288</v>
+        <v>10983.831298</v>
       </c>
       <c r="I21">
-        <v>0.6426972542456323</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="J21">
-        <v>0.6426972542456323</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.227894833685927</v>
+        <v>4.843718666666667</v>
       </c>
       <c r="N21">
-        <v>0.227894833685927</v>
+        <v>14.531156</v>
       </c>
       <c r="O21">
-        <v>0.01869048950513819</v>
+        <v>0.3461912132843752</v>
       </c>
       <c r="P21">
-        <v>0.01869048950513819</v>
+        <v>0.3461912132843752</v>
       </c>
       <c r="Q21">
-        <v>813.8623325866777</v>
+        <v>17734.19622988006</v>
       </c>
       <c r="R21">
-        <v>813.8623325866777</v>
+        <v>159607.7660689205</v>
       </c>
       <c r="S21">
-        <v>0.01201232628545912</v>
+        <v>0.1949251518876317</v>
       </c>
       <c r="T21">
-        <v>0.01201232628545912</v>
+        <v>0.1949251518876317</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>268.410796938525</v>
+        <v>3661.277099333334</v>
       </c>
       <c r="H22">
-        <v>268.410796938525</v>
+        <v>10983.831298</v>
       </c>
       <c r="I22">
-        <v>0.04830476317071429</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="J22">
-        <v>0.04830476317071429</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.84291836374797</v>
+        <v>1.932387666666666</v>
       </c>
       <c r="N22">
-        <v>4.84291836374797</v>
+        <v>5.797162999999999</v>
       </c>
       <c r="O22">
-        <v>0.3971854622058597</v>
+        <v>0.1381119914050395</v>
       </c>
       <c r="P22">
-        <v>0.3971854622058597</v>
+        <v>0.1381119914050395</v>
       </c>
       <c r="Q22">
-        <v>1299.89157752181</v>
+        <v>7075.006711000841</v>
       </c>
       <c r="R22">
-        <v>1299.89157752181</v>
+        <v>63675.06039900758</v>
       </c>
       <c r="S22">
-        <v>0.01918594968670474</v>
+        <v>0.07776483015476252</v>
       </c>
       <c r="T22">
-        <v>0.01918594968670474</v>
+        <v>0.07776483015476252</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>268.410796938525</v>
+        <v>3661.277099333334</v>
       </c>
       <c r="H23">
-        <v>268.410796938525</v>
+        <v>10983.831298</v>
       </c>
       <c r="I23">
-        <v>0.04830476317071429</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="J23">
-        <v>0.04830476317071429</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.968021272900974</v>
+        <v>1.513423333333333</v>
       </c>
       <c r="N23">
-        <v>0.968021272900974</v>
+        <v>4.54027</v>
       </c>
       <c r="O23">
-        <v>0.07939096797095771</v>
+        <v>0.108167690164406</v>
       </c>
       <c r="P23">
-        <v>0.07939096797095771</v>
+        <v>0.1081676901644061</v>
       </c>
       <c r="Q23">
-        <v>259.8273613127958</v>
+        <v>5541.062191930051</v>
       </c>
       <c r="R23">
-        <v>259.8273613127958</v>
+        <v>49869.55972737046</v>
       </c>
       <c r="S23">
-        <v>0.003834961905730876</v>
+        <v>0.06090450197911695</v>
       </c>
       <c r="T23">
-        <v>0.003834961905730876</v>
+        <v>0.06090450197911696</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>268.410796938525</v>
+        <v>3661.277099333334</v>
       </c>
       <c r="H24">
-        <v>268.410796938525</v>
+        <v>10983.831298</v>
       </c>
       <c r="I24">
-        <v>0.04830476317071429</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="J24">
-        <v>0.04830476317071429</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.13664703581253</v>
+        <v>5.064756333333333</v>
       </c>
       <c r="N24">
-        <v>1.13664703581253</v>
+        <v>15.194269</v>
       </c>
       <c r="O24">
-        <v>0.09322058403122289</v>
+        <v>0.3619892608736132</v>
       </c>
       <c r="P24">
-        <v>0.09322058403122289</v>
+        <v>0.3619892608736132</v>
       </c>
       <c r="Q24">
-        <v>305.0883367202533</v>
+        <v>18543.4763769368</v>
       </c>
       <c r="R24">
-        <v>305.0883367202533</v>
+        <v>166891.2873924312</v>
       </c>
       <c r="S24">
-        <v>0.004502998234263892</v>
+        <v>0.2038203424866221</v>
       </c>
       <c r="T24">
-        <v>0.004502998234263892</v>
+        <v>0.2038203424866221</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>268.410796938525</v>
+        <v>3661.277099333334</v>
       </c>
       <c r="H25">
-        <v>268.410796938525</v>
+        <v>10983.831298</v>
       </c>
       <c r="I25">
-        <v>0.04830476317071429</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="J25">
-        <v>0.04830476317071429</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.01760918969963</v>
+        <v>0.4503413333333333</v>
       </c>
       <c r="N25">
-        <v>5.01760918969963</v>
+        <v>1.351024</v>
       </c>
       <c r="O25">
-        <v>0.4115124962868217</v>
+        <v>0.03218688435636571</v>
       </c>
       <c r="P25">
-        <v>0.4115124962868217</v>
+        <v>0.03218688435636571</v>
       </c>
       <c r="Q25">
-        <v>1346.780481333344</v>
+        <v>1648.824410616573</v>
       </c>
       <c r="R25">
-        <v>1346.780481333344</v>
+        <v>14839.41969554915</v>
       </c>
       <c r="S25">
-        <v>0.01987801367492437</v>
+        <v>0.01812302878063078</v>
       </c>
       <c r="T25">
-        <v>0.01987801367492437</v>
+        <v>0.01812302878063078</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>268.410796938525</v>
+        <v>274.3202006666667</v>
       </c>
       <c r="H26">
-        <v>268.410796938525</v>
+        <v>822.960602</v>
       </c>
       <c r="I26">
-        <v>0.04830476317071429</v>
+        <v>0.04218684342756861</v>
       </c>
       <c r="J26">
-        <v>0.04830476317071429</v>
+        <v>0.04218684342756862</v>
       </c>
       <c r="K26">
         <v>1</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>0.227894833685927</v>
+        <v>0.1868273333333333</v>
       </c>
       <c r="N26">
-        <v>0.227894833685927</v>
+        <v>0.560482</v>
       </c>
       <c r="O26">
-        <v>0.01869048950513819</v>
+        <v>0.01335295991620028</v>
       </c>
       <c r="P26">
-        <v>0.01869048950513819</v>
+        <v>0.01335295991620028</v>
       </c>
       <c r="Q26">
-        <v>61.16943392781228</v>
+        <v>51.25051157001823</v>
       </c>
       <c r="R26">
-        <v>61.16943392781228</v>
+        <v>461.254604130164</v>
       </c>
       <c r="S26">
-        <v>0.0009028396690904212</v>
+        <v>0.0005633192292793409</v>
       </c>
       <c r="T26">
-        <v>0.0009028396690904212</v>
+        <v>0.000563319229279341</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2087,57 +2087,57 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>15.4296784924571</v>
+        <v>274.3202006666667</v>
       </c>
       <c r="H27">
-        <v>15.4296784924571</v>
+        <v>822.960602</v>
       </c>
       <c r="I27">
-        <v>0.002776814397481592</v>
+        <v>0.04218684342756861</v>
       </c>
       <c r="J27">
-        <v>0.002776814397481592</v>
+        <v>0.04218684342756862</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>4.84291836374797</v>
+        <v>4.843718666666667</v>
       </c>
       <c r="N27">
-        <v>4.84291836374797</v>
+        <v>14.531156</v>
       </c>
       <c r="O27">
-        <v>0.3971854622058597</v>
+        <v>0.3461912132843752</v>
       </c>
       <c r="P27">
-        <v>0.3971854622058597</v>
+        <v>0.3461912132843752</v>
       </c>
       <c r="Q27">
-        <v>74.72467331784758</v>
+        <v>1328.729876612879</v>
       </c>
       <c r="R27">
-        <v>74.72467331784758</v>
+        <v>11958.56888951591</v>
       </c>
       <c r="S27">
-        <v>0.001102910309923612</v>
+        <v>0.01460471451082795</v>
       </c>
       <c r="T27">
-        <v>0.001102910309923612</v>
+        <v>0.01460471451082795</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2149,57 +2149,57 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>15.4296784924571</v>
+        <v>274.3202006666667</v>
       </c>
       <c r="H28">
-        <v>15.4296784924571</v>
+        <v>822.960602</v>
       </c>
       <c r="I28">
-        <v>0.002776814397481592</v>
+        <v>0.04218684342756861</v>
       </c>
       <c r="J28">
-        <v>0.002776814397481592</v>
+        <v>0.04218684342756862</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.968021272900974</v>
+        <v>1.932387666666666</v>
       </c>
       <c r="N28">
-        <v>0.968021272900974</v>
+        <v>5.797162999999999</v>
       </c>
       <c r="O28">
-        <v>0.07939096797095771</v>
+        <v>0.1381119914050395</v>
       </c>
       <c r="P28">
-        <v>0.07939096797095771</v>
+        <v>0.1381119914050395</v>
       </c>
       <c r="Q28">
-        <v>14.9362570147211</v>
+        <v>530.0929724857917</v>
       </c>
       <c r="R28">
-        <v>14.9362570147211</v>
+        <v>4770.836752372125</v>
       </c>
       <c r="S28">
-        <v>0.0002204539828917553</v>
+        <v>0.005826508956874104</v>
       </c>
       <c r="T28">
-        <v>0.0002204539828917553</v>
+        <v>0.005826508956874104</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2211,57 +2211,57 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>15.4296784924571</v>
+        <v>274.3202006666667</v>
       </c>
       <c r="H29">
-        <v>15.4296784924571</v>
+        <v>822.960602</v>
       </c>
       <c r="I29">
-        <v>0.002776814397481592</v>
+        <v>0.04218684342756861</v>
       </c>
       <c r="J29">
-        <v>0.002776814397481592</v>
+        <v>0.04218684342756862</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.13664703581253</v>
+        <v>1.513423333333333</v>
       </c>
       <c r="N29">
-        <v>1.13664703581253</v>
+        <v>4.54027</v>
       </c>
       <c r="O29">
-        <v>0.09322058403122289</v>
+        <v>0.108167690164406</v>
       </c>
       <c r="P29">
-        <v>0.09322058403122289</v>
+        <v>0.1081676901644061</v>
       </c>
       <c r="Q29">
-        <v>17.53809832199171</v>
+        <v>415.1625924936155</v>
       </c>
       <c r="R29">
-        <v>17.53809832199171</v>
+        <v>3736.463332442539</v>
       </c>
       <c r="S29">
-        <v>0.0002588562598795423</v>
+        <v>0.004563253408887551</v>
       </c>
       <c r="T29">
-        <v>0.0002588562598795423</v>
+        <v>0.004563253408887553</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2273,57 +2273,57 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>15.4296784924571</v>
+        <v>274.3202006666667</v>
       </c>
       <c r="H30">
-        <v>15.4296784924571</v>
+        <v>822.960602</v>
       </c>
       <c r="I30">
-        <v>0.002776814397481592</v>
+        <v>0.04218684342756861</v>
       </c>
       <c r="J30">
-        <v>0.002776814397481592</v>
+        <v>0.04218684342756862</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>5.01760918969963</v>
+        <v>5.064756333333333</v>
       </c>
       <c r="N30">
-        <v>5.01760918969963</v>
+        <v>15.194269</v>
       </c>
       <c r="O30">
-        <v>0.4115124962868217</v>
+        <v>0.3619892608736132</v>
       </c>
       <c r="P30">
-        <v>0.4115124962868217</v>
+        <v>0.3619892608736132</v>
       </c>
       <c r="Q30">
-        <v>77.42009659786349</v>
+        <v>1389.364973687771</v>
       </c>
       <c r="R30">
-        <v>77.42009659786349</v>
+        <v>12504.28476318994</v>
       </c>
       <c r="S30">
-        <v>0.001142693824432836</v>
+        <v>0.01527118427093641</v>
       </c>
       <c r="T30">
-        <v>0.001142693824432836</v>
+        <v>0.01527118427093641</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2335,52 +2335,424 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>15.4296784924571</v>
+        <v>274.3202006666667</v>
       </c>
       <c r="H31">
-        <v>15.4296784924571</v>
+        <v>822.960602</v>
       </c>
       <c r="I31">
-        <v>0.002776814397481592</v>
+        <v>0.04218684342756861</v>
       </c>
       <c r="J31">
-        <v>0.002776814397481592</v>
+        <v>0.04218684342756862</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.227894833685927</v>
+        <v>0.4503413333333333</v>
       </c>
       <c r="N31">
-        <v>0.227894833685927</v>
+        <v>1.351024</v>
       </c>
       <c r="O31">
-        <v>0.01869048950513819</v>
+        <v>0.03218688435636571</v>
       </c>
       <c r="P31">
-        <v>0.01869048950513819</v>
+        <v>0.03218688435636571</v>
       </c>
       <c r="Q31">
-        <v>3.516344013865836</v>
+        <v>123.5377249284942</v>
       </c>
       <c r="R31">
-        <v>3.516344013865836</v>
+        <v>1111.839524356448</v>
       </c>
       <c r="S31">
-        <v>5.190002035384632E-05</v>
+        <v>0.001357863050763258</v>
       </c>
       <c r="T31">
-        <v>5.190002035384632E-05</v>
+        <v>0.001357863050763258</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>27.06326066666667</v>
+      </c>
+      <c r="H32">
+        <v>81.18978200000001</v>
+      </c>
+      <c r="I32">
+        <v>0.004161973991013034</v>
+      </c>
+      <c r="J32">
+        <v>0.004161973991013034</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M32">
+        <v>0.1868273333333333</v>
+      </c>
+      <c r="N32">
+        <v>0.560482</v>
+      </c>
+      <c r="O32">
+        <v>0.01335295991620028</v>
+      </c>
+      <c r="P32">
+        <v>0.01335295991620028</v>
+      </c>
+      <c r="Q32">
+        <v>5.056156821658223</v>
+      </c>
+      <c r="R32">
+        <v>45.50541139492401</v>
+      </c>
+      <c r="S32">
+        <v>5.557467187426514E-05</v>
+      </c>
+      <c r="T32">
+        <v>5.557467187426515E-05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>27.06326066666667</v>
+      </c>
+      <c r="H33">
+        <v>81.18978200000001</v>
+      </c>
+      <c r="I33">
+        <v>0.004161973991013034</v>
+      </c>
+      <c r="J33">
+        <v>0.004161973991013034</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>4.843718666666667</v>
+      </c>
+      <c r="N33">
+        <v>14.531156</v>
+      </c>
+      <c r="O33">
+        <v>0.3461912132843752</v>
+      </c>
+      <c r="P33">
+        <v>0.3461912132843752</v>
+      </c>
+      <c r="Q33">
+        <v>131.0868208719991</v>
+      </c>
+      <c r="R33">
+        <v>1179.781387847992</v>
+      </c>
+      <c r="S33">
+        <v>0.001440838825606815</v>
+      </c>
+      <c r="T33">
+        <v>0.001440838825606815</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>27.06326066666667</v>
+      </c>
+      <c r="H34">
+        <v>81.18978200000001</v>
+      </c>
+      <c r="I34">
+        <v>0.004161973991013034</v>
+      </c>
+      <c r="J34">
+        <v>0.004161973991013034</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1.932387666666666</v>
+      </c>
+      <c r="N34">
+        <v>5.797162999999999</v>
+      </c>
+      <c r="O34">
+        <v>0.1381119914050395</v>
+      </c>
+      <c r="P34">
+        <v>0.1381119914050395</v>
+      </c>
+      <c r="Q34">
+        <v>52.29671113205178</v>
+      </c>
+      <c r="R34">
+        <v>470.670400188466</v>
+      </c>
+      <c r="S34">
+        <v>0.0005748185160747901</v>
+      </c>
+      <c r="T34">
+        <v>0.0005748185160747901</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>27.06326066666667</v>
+      </c>
+      <c r="H35">
+        <v>81.18978200000001</v>
+      </c>
+      <c r="I35">
+        <v>0.004161973991013034</v>
+      </c>
+      <c r="J35">
+        <v>0.004161973991013034</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1.513423333333333</v>
+      </c>
+      <c r="N35">
+        <v>4.54027</v>
+      </c>
+      <c r="O35">
+        <v>0.108167690164406</v>
+      </c>
+      <c r="P35">
+        <v>0.1081676901644061</v>
+      </c>
+      <c r="Q35">
+        <v>40.95817016901555</v>
+      </c>
+      <c r="R35">
+        <v>368.62353152114</v>
+      </c>
+      <c r="S35">
+        <v>0.0004501911131322143</v>
+      </c>
+      <c r="T35">
+        <v>0.0004501911131322144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>27.06326066666667</v>
+      </c>
+      <c r="H36">
+        <v>81.18978200000001</v>
+      </c>
+      <c r="I36">
+        <v>0.004161973991013034</v>
+      </c>
+      <c r="J36">
+        <v>0.004161973991013034</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>5.064756333333333</v>
+      </c>
+      <c r="N36">
+        <v>15.194269</v>
+      </c>
+      <c r="O36">
+        <v>0.3619892608736132</v>
+      </c>
+      <c r="P36">
+        <v>0.3619892608736132</v>
+      </c>
+      <c r="Q36">
+        <v>137.0688208621509</v>
+      </c>
+      <c r="R36">
+        <v>1233.619387759358</v>
+      </c>
+      <c r="S36">
+        <v>0.00150658988878201</v>
+      </c>
+      <c r="T36">
+        <v>0.00150658988878201</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>27.06326066666667</v>
+      </c>
+      <c r="H37">
+        <v>81.18978200000001</v>
+      </c>
+      <c r="I37">
+        <v>0.004161973991013034</v>
+      </c>
+      <c r="J37">
+        <v>0.004161973991013034</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.4503413333333333</v>
+      </c>
+      <c r="N37">
+        <v>1.351024</v>
+      </c>
+      <c r="O37">
+        <v>0.03218688435636571</v>
+      </c>
+      <c r="P37">
+        <v>0.03218688435636571</v>
+      </c>
+      <c r="Q37">
+        <v>12.18770489297422</v>
+      </c>
+      <c r="R37">
+        <v>109.689344036768</v>
+      </c>
+      <c r="S37">
+        <v>0.0001339609755429384</v>
+      </c>
+      <c r="T37">
+        <v>0.0001339609755429384</v>
       </c>
     </row>
   </sheetData>
